--- a/wcsm9automationproject/src/main/resources/ActiTimeTestData.xlsx
+++ b/wcsm9automationproject/src/main/resources/ActiTimeTestData.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15030" windowHeight="3630"/>
   </bookViews>
   <sheets>
-    <sheet name="validCreads" sheetId="1" r:id="rId1"/>
-    <sheet name="invalidCreads" sheetId="2" r:id="rId2"/>
+    <sheet name="validCreds" sheetId="1" r:id="rId1"/>
+    <sheet name="invalidCreds" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:O10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>admin</t>
   </si>
@@ -49,13 +50,16 @@
     <t>ad@min</t>
   </si>
   <si>
-    <t>mana@456</t>
-  </si>
-  <si>
     <t>mana123</t>
   </si>
   <si>
     <t>ad123</t>
+  </si>
+  <si>
+    <t>mana@ger</t>
+  </si>
+  <si>
+    <t>1234</t>
   </si>
 </sst>
 </file>
@@ -400,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +458,9 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -463,7 +469,9 @@
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -477,8 +485,8 @@
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -491,10 +499,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
